--- a/natmiOut/OldD0/LR-pairs_lrc2p/Trf-Tfr2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Trf-Tfr2.xlsx
@@ -528,34 +528,34 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.95416869844889</v>
+        <v>12.72626133333333</v>
       </c>
       <c r="H2">
-        <v>2.95416869844889</v>
+        <v>38.178784</v>
       </c>
       <c r="I2">
-        <v>0.02212754158162965</v>
+        <v>0.08664518826379554</v>
       </c>
       <c r="J2">
-        <v>0.02212754158162965</v>
+        <v>0.08664518826379553</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.725970064251796</v>
+        <v>0.7479136666666667</v>
       </c>
       <c r="N2">
-        <v>0.725970064251796</v>
+        <v>2.243741</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>2.144638039823585</v>
+        <v>9.518144776771557</v>
       </c>
       <c r="R2">
-        <v>2.144638039823585</v>
+        <v>85.663302990944</v>
       </c>
       <c r="S2">
-        <v>0.02212754158162965</v>
+        <v>0.08664518826379554</v>
       </c>
       <c r="T2">
-        <v>0.02212754158162965</v>
+        <v>0.08664518826379553</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>129.01315128502</v>
+        <v>132.5150096666667</v>
       </c>
       <c r="H3">
-        <v>129.01315128502</v>
+        <v>397.545029</v>
       </c>
       <c r="I3">
-        <v>0.9663442277806489</v>
+        <v>0.9022121783931373</v>
       </c>
       <c r="J3">
-        <v>0.9663442277806489</v>
+        <v>0.9022121783931372</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.725970064251796</v>
+        <v>0.7479136666666667</v>
       </c>
       <c r="N3">
-        <v>0.725970064251796</v>
+        <v>2.243741</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>93.65968572771264</v>
+        <v>99.10978676816543</v>
       </c>
       <c r="R3">
-        <v>93.65968572771264</v>
+        <v>891.9880809134889</v>
       </c>
       <c r="S3">
-        <v>0.9663442277806489</v>
+        <v>0.9022121783931373</v>
       </c>
       <c r="T3">
-        <v>0.9663442277806489</v>
+        <v>0.9022121783931372</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.53909271722847</v>
+        <v>1.636606333333333</v>
       </c>
       <c r="H4">
-        <v>1.53909271722847</v>
+        <v>4.909819</v>
       </c>
       <c r="I4">
-        <v>0.0115282306377215</v>
+        <v>0.0111426333430672</v>
       </c>
       <c r="J4">
-        <v>0.0115282306377215</v>
+        <v>0.01114263334306719</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.725970064251796</v>
+        <v>0.7479136666666667</v>
       </c>
       <c r="N4">
-        <v>0.725970064251796</v>
+        <v>2.243741</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.117335238815824</v>
+        <v>1.224040243653222</v>
       </c>
       <c r="R4">
-        <v>1.117335238815824</v>
+        <v>11.016362192879</v>
       </c>
       <c r="S4">
-        <v>0.0115282306377215</v>
+        <v>0.0111426333430672</v>
       </c>
       <c r="T4">
-        <v>0.0115282306377215</v>
+        <v>0.01114263334306719</v>
       </c>
     </row>
   </sheetData>
